--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/135.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/135.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-4.663479599171186</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.773163555872138</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4.61518356450747</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-10.73397081436086</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-7.524535921397221</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-5.669797036864515</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-5.302853970419554</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.539249488382527</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4.147768278679316</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-11.30007535005974</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-7.548892822325437</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-5.510526690970178</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-6.042988401546623</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9.268472517863655</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3.606692248370102</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-11.96663955314477</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-7.583253502193561</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-5.402887613306315</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-6.828580084167935</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8.981065086268972</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3.032384648020539</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-12.65978137018081</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-7.605678650338447</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-5.302634362740565</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-7.645539104021093</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.682181965675534</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.435145923814284</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-13.32546252083435</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-7.578349981352688</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-5.325728728422521</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-8.472736919042029</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8.379552998624082</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.830422117964016</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.09135880127763</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-7.533732870486803</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-5.251592371616082</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-9.30436151783943</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.075304499971717</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.222462107321656</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-14.75199523188662</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-7.509362301496441</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-5.311327855326692</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-10.1503367840547</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.765805833127044</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.6040110266355413</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-15.4597957192855</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-7.475877620156778</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-5.253350271297434</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-11.01413270516498</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.449787508849619</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-0.02746786197652062</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-16.08578932373581</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-7.399697226142023</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-5.108474177407849</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-11.89944044410117</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7.125899121221157</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-0.6746729869376386</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-16.821525967288</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-7.301534032175477</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-4.951054426469965</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-12.82113757080009</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6.788697735624982</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-1.348480610915129</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-17.49688446689593</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-7.176492801090293</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-4.654833432707058</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-13.77443366514035</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>6.439935919423769</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-2.045388692396275</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-18.20790017084025</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-7.088914485796718</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-4.404344315023643</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-14.75353074124779</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6.081734856262117</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-2.761158607897777</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-18.9460912473046</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-6.968905586683543</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-3.933561565520505</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-15.75633751318319</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5.71485963967885</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-3.494261520702068</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-19.74420309183845</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-6.811994162326754</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-3.547154690176772</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-16.75669028529699</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5.348882214914743</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-4.225570434435373</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-20.52411499933547</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-6.623411767058731</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-3.205996351263797</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-17.73065945889405</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.992557186495541</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-4.937591591579687</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-21.43416619286492</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-6.430472573435684</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-2.77986623999435</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-18.66208742989842</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.651795787433154</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-5.618512959205518</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.17466679107319</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-6.237434804091704</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-2.550183901025254</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-19.51827318831643</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.33856162872391</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-6.244428430624205</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-22.94893621995665</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-5.969810419615955</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-2.370762264433373</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-20.28112351822879</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.059474083805292</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-6.802110941895174</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-23.73089499770514</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-5.783089780085724</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-2.253724547983519</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-20.94569535771662</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3.81634156379181</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-7.287946862564066</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-24.3697313544412</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-5.571277063557294</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-2.233788442746028</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-21.49402311027765</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3.615736752766061</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-7.688802424995204</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-24.89784199321572</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-5.342884573461831</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-2.309288744314647</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-21.92722028650259</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3.457252274700505</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-8.00549166224096</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-25.38638735458522</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-5.161965819220807</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-2.442985125918114</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-22.25490470784809</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.337369465353222</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-8.245045692480854</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-25.76666143090533</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-4.98461152991403</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-2.619529898436368</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-22.4694483814122</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.258879013445433</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-8.401888063728531</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.06263796357266</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-4.84530581215264</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-2.845689816951679</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-22.58074883719584</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.218159923821981</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-8.483254375379939</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-26.22425920090641</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-4.778770513992382</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-3.053029284076233</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-22.60196721916981</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.210397213497217</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-8.498766095150328</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-26.33142553829793</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-4.700722565668014</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-3.251211782239163</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-22.52900906395734</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.237088835197609</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-8.44542996141455</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.32329239898015</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-4.655883038154477</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-3.384199707097226</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-22.37887367645936</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.292015621041735</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-8.33567333334816</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-26.28699215133467</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-4.618646266663834</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-3.506434980043736</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-22.16958876616877</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3.368582163011015</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-8.182675386351946</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-26.11841064945112</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-4.586549514907562</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-3.593469222271176</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-21.90206212131411</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3.466456348267488</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-7.987099759935703</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-25.9190219388934</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-4.544771633314771</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-3.682052799810994</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-21.59890389196491</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.577366290406025</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-7.765475627354747</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-25.7197102123938</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-4.545061561905751</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-3.724556893989697</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-21.27950412401381</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.694218172865443</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-7.531978101423553</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-25.41951314195133</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-4.51285877912192</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-3.688306420334678</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-20.9435684017735</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.817119707143183</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-7.286391949253804</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-25.09062366019625</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-4.463058987600419</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-3.6278823431519</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-20.61081253461991</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.938857896640763</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-7.043130433386485</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-24.81238063174296</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-4.437818632837119</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-3.555493954390196</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-20.29249601225674</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4.055313475474393</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-6.810424815246518</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-24.39620481349004</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-4.425093252795313</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-3.443163833697185</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-19.97986647384748</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.169688480534306</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-6.581876672522909</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-24.03772628256885</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-4.412356275609867</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-3.327917122384077</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-19.68467696397607</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.277683079691398</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-6.366078080438868</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-23.66035042961365</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-4.405314324318669</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-3.184169924523383</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-19.40989663262812</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.378211014281971</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-6.165199639117877</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-23.24901555007493</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-4.414671562500692</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-3.083486303037528</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-19.14150645191351</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.476401122719768</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-5.968992723931006</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-22.84562814241967</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-4.435033661628907</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-2.929681667828528</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-18.88587053953461</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.569925102957219</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-5.782109829611636</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-22.38306716490618</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-4.437949514886761</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-2.766531362562165</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-18.64092596646601</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.659537674202627</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-5.603042849792953</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-21.98482410372363</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-4.474610571032459</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-2.631179708189063</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-18.39140814893796</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.750823359450159</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-5.420632594950589</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-21.53307259366645</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-4.542979874622516</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-2.50654760027212</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-18.14466961507326</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.841092248317296</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-5.240254138263299</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-21.03751715453308</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-4.604679163885232</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-2.426723726229214</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-17.90179483150569</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.929947590460625</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-5.062700280169122</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-20.6097348573985</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-4.632633250260104</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-2.291203234033608</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-17.65302251715176</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.020960534591798</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-4.880835026182105</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-20.10893997383825</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-4.730282028069512</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-2.143738293532313</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-17.40908946738146</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.110203041693718</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-4.702507521501706</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-19.67445100669831</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.779103517688307</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-2.0813808577546</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-17.17210794234355</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.196902344847321</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-4.529261936062758</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-19.29041829695183</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.838796501101442</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-1.991741216187755</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-16.93425139429929</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>5.283921773735971</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-4.35537666416308</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-18.75386658262702</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.91466998499346</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-1.903832989937947</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-16.70663397469513</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>5.367195234239468</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-4.188976717546485</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-18.33080295540843</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.971401554941587</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-1.937133767517476</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-16.48982791083278</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>5.44651337793584</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-4.030480423565173</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-17.81796233098778</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-5.031545170221845</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-1.797382398122682</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-16.27419266248391</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.525403180692448</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-3.872840055458433</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-17.42700105600956</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-5.055636579397463</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-1.862318748875487</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-16.0679504706548</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.60085654909151</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-3.722066490894982</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-17.01538541108236</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-5.122272938380863</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-1.835132548906992</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-15.8694600863253</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.673473931401399</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-3.576959893105705</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-16.62998510218557</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-5.121182806878779</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-1.839873250119228</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-15.66963572135701</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.746579348345155</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-3.430878087410672</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-16.1837311595737</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-5.108928767889166</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-1.856459083270977</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-15.47760900702325</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.816832007563843</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-3.290496762160326</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-15.89852333809662</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-5.173654083274308</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-1.958029930961356</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-15.29294833663178</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.884389811659572</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-3.155500390842341</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-15.48261017133614</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-5.132289557015515</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-2.082430300690549</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-15.10891395756695</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.951718488098273</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-3.020961870437088</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-15.20585701083137</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-5.175636366469208</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-2.140076830165879</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-14.93691895810251</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>6.014642577210647</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-2.895224750760682</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-14.83175524458372</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-5.149772251051599</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-2.27643157983738</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-14.77845664926714</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>6.072615753600412</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-2.779380718362795</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-14.51958488886496</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-5.141517569882701</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-2.410816554913016</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-14.62877843139819</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6.127375284683839</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-2.669958304619711</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-14.23123430642655</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-5.144294257416886</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-2.52594739713225</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-14.49802472453036</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.175211314384376</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-2.574370673934123</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-13.94007154162938</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-5.181548424622988</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-2.701369894712691</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-14.38329300845255</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.217185724971753</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-2.490495935947115</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-13.71252477969196</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-5.168415487819004</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-2.801828399101875</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-14.27628256712394</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.256335319826734</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-2.412265843735963</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-13.48463385372995</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-5.230572035888065</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-3.011720296837207</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-14.1853798456885</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.289591931716453</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-2.345811316571627</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-13.25825543808651</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-5.215813013872387</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-3.036635462565762</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-14.10887879190175</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.31757971706287</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-2.289885143221777</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.09148079733203</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-5.267496512867853</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-3.197177057947179</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-14.04155761666745</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.342209058862244</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-2.240669929444929</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-12.94568204818107</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.335131054571627</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-3.270677790010078</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-13.99455715057093</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.35940410247508</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-2.206310190796553</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-12.82339513607795</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.33231791887172</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-3.357463741322072</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-13.96754671977163</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.369285824384852</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-2.186564187828453</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-12.75615635401206</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.378215271558632</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-3.372149321334279</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-13.95699439449982</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6.373146375318388</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-2.178849899682302</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-12.74820888212859</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.475330580760638</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-3.395256929198392</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-13.97682611985356</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6.365890971049097</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-2.193347902717027</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-12.64297167466434</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.51981059682136</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-3.411657371799941</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-14.02869691377192</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>6.346914125972136</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-2.231268099483981</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-12.70692731307467</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.583660327861743</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-3.385927811868726</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-14.1100060778088</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>6.317167301358396</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-2.290709246733187</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-12.75038707812628</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.658081683696654</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-3.347081870510918</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-14.23594314060072</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>6.271093433011379</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-2.382775664857383</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-12.78666468340173</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.731210786383197</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-3.320561090195816</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-14.40874605067383</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>6.207873771124838</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-2.509103408407776</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-13.00321631044853</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.819428601311733</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-3.181514867000887</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-14.6265208505349</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>6.128201216948513</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-2.668307897828403</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-13.21018568649509</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.879717180887481</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-3.130145131868016</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-14.90746670161016</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>6.025417637054573</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-2.873693648630674</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-13.54013935964197</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.993828932460127</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-3.09242477599356</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-15.2547778373234</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.898354426371762</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-3.127595808415</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-13.91921791882406</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-6.060636763495907</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-2.981604264066457</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-15.6657741067521</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.747992113729461</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-3.428055050117533</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-14.2564126219092</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-6.140029152115018</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-2.929019558720674</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-16.16027539951362</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.56707962494316</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-3.789560724245862</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-14.81209261044241</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.238679426114411</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-2.773423918374928</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-16.74071709212267</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>5.354725981500049</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-4.213893215283493</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-15.35336299468322</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.334176105411346</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-2.754616709166328</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-17.40317183924058</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>5.112367996265828</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-4.69818143341736</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.01817467832728</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.420332942241717</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-2.653830460768756</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-18.17100968266429</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.831455777690334</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-5.259510071524672</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-16.82313357556073</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.49635304716403</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-2.607741045771023</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-19.04718361812128</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4.510908977118761</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-5.900037920142054</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-17.70139488155633</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.615935751248466</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-2.555785344077701</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-20.02631696927269</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>4.152694642791633</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-6.615834354551422</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-18.6096256285347</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.70902353813806</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-2.597945141520319</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-21.13502405323475</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.747075970341952</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.426355798409107</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-19.65125163435701</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.796152878299318</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-2.561307334037205</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-22.37402800718941</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.293788401215</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-8.332130901889077</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-20.88413321141927</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.892598038272459</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-2.582256466209713</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-23.73313420372946</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.796561623165864</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.325706872233701</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.21166442371585</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.987094463930513</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-2.643925308515257</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-25.24062848662553</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.245047306536216</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-10.42776210436383</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-23.60877111066628</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-7.097938720282817</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-2.765452124716363</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-26.89234986310042</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.640767743724812</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-11.6352547002683</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.13342679651675</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-7.206957669063051</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-2.882969870269411</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-28.67097103925578</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.990062096851078</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-12.93551752408067</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-26.88468732171105</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-7.277122044814975</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-3.05313522153349</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-30.60408240279479</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.282836467720962</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-14.34872055685479</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-28.63452137759293</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-7.389087496446967</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-3.258567814427424</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-32.67833886666451</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.4760268654042683</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.86510785909769</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.59843224947641</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-7.471363846178924</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-3.535667097155501</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-34.86726350762458</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.27684136348228</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-17.46532344908604</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.60222086347144</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-7.599985695362707</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-3.843024766112516</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-37.18500311681864</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-2.12478260690407</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-19.15970935290552</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-34.72190218427077</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-7.699584450038306</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-4.288491773876848</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-39.61545674452941</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-3.013960089562136</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-20.93649495485328</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-36.97084426714505</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-7.728093542573053</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-4.584176459262393</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-42.09354221917239</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.920563605478624</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-22.74810186705292</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-39.17498389242443</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-7.801607836101899</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-5.052939775986575</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-44.67203079296264</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-4.863899430924885</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-24.63310856722705</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.55815673759707</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-7.854103963519512</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-5.587397558392055</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-47.23687922591368</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-5.802245033164985</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-26.50814362853702</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-43.81313754056056</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-7.841088654886726</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-6.094122900815059</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-49.85480592366156</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-6.760009231727103</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-28.42198160943044</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.32781500667894</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-7.844067464067193</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-6.594392679436486</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-52.3554248029118</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-7.674856556846924</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-30.25006159003697</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-48.52868847008029</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-7.817867445667749</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-7.101766888785188</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-54.99094165273814</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-8.639056083763546</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-32.17675886953735</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-50.97641471223227</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-7.724617298767206</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-7.606138433329771</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-48.51459863283217</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-6.269696587407243</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-27.44222170336963</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-48.69174328887385</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-6.334504669951833</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-27.57172348473598</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-48.9883379441919</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-6.443013339271285</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-27.78854930983107</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-49.3854029998178</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-6.588278940139987</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-28.07882412348271</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-49.89335517667819</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-6.774112412863689</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-28.45016308014227</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-50.46020201666614</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-6.981492401721119</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-28.86455704031374</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-51.03653058443052</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-7.192341265170263</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-29.28588262724108</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-51.56442957928464</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-7.385472248617265</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-29.67180372552715</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-51.9699208075137</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-7.53382055094478</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-29.96823850124929</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-52.20200858425548</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-7.618729484292063</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-30.13790650700806</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-52.22858349290803</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-7.628451871137105</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-30.15733412106684</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-52.00983695445522</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-7.548423807987083</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-29.99741924115821</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-51.53552358364665</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-7.37489703741304</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-29.65067196795154</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-50.81663463296702</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-7.111892691151112</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-29.12512746777937</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-49.87426220137492</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-6.76712727909152</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-28.43620514108497</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-48.7745118548005</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-6.364785414358873</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-27.6322315292243</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-47.60152675143279</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-5.935650733690101</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-26.77471957376024</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-46.4265415992593</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-5.505784338438493</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-25.91574548057805</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-45.33014484105449</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-5.104669378523269</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-25.11422351291336</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-44.37366341924375</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-4.754742215479249</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-24.41498679453806</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-43.58075165554607</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-4.46465674420089</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-23.83532784145611</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-42.97234112954445</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-4.242070748827529</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-23.39054870625765</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-42.54397447786715</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-4.085353510263365</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-23.0773908289063</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-42.25869818585303</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-3.980985645638001</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-22.86883930484156</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-42.08557879736301</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-3.9176502006405</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-22.7422801994219</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-41.98215529668644</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-3.879812882153624</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-22.66667234383066</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-41.89512753063183</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-3.847973916349249</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-22.6030506067473</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-41.79606768765115</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-3.811733034890004</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-22.5306328075626</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-41.66495347693857</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-3.763765115447772</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-22.43478163017384</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-41.48511142665204</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-3.697970195632549</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-22.30330791599529</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-41.26752400132341</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-3.61836619212231</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-22.1442404069176</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-41.03177261455408</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-3.532116933041345</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-21.97189411531379</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-40.79577954476383</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-3.445779254622651</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-21.7993711410912</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-40.59128512193679</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-3.370965304653058</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-21.64987528483825</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-40.44371688191332</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-3.316977705511769</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-21.54199537254985</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-40.36289474307868</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-3.287409058271325</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-21.48291026557116</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-40.36107702801932</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-3.286744050191252</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-21.48158142312418</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-40.43880020351025</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-3.315178946763345</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-21.53840102979161</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-40.58134306790112</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-3.367328020452656</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-21.64260713610134</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-40.7802727384728</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-3.44010611491543</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-21.78803487454574</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-41.02072641955441</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-3.528075700676009</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-21.96381878319968</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-41.28065245029034</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-3.623169213694303</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-22.15383797291696</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-41.54877431994474</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-3.72126116096977</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-22.34984873902977</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-41.80762820997415</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-3.81596243306497</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-22.5390841391907</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-42.03396557498529</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-3.898767587690207</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-22.70454830059228</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-42.22145518108164</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-3.967360353284477</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-22.84161276824091</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-42.36683254961704</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-4.020546425676865</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-22.94789104169476</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-42.46545572181709</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-4.056627551845556</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-23.01998961226017</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-42.52854578487373</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-4.079708948178257</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-23.06611166716668</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-42.56521695432635</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-4.093125035516127</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-23.09292016297468</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-42.5776132911049</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-4.09766021504198</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-23.10198251761247</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-42.57813892624098</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-4.097852517796397</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-23.10236678371449</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-42.57269946163513</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-4.095862498571145</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-23.09839025756983</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-42.55891517471292</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-4.090819539756384</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-23.08831324056475</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-42.54538214260043</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-4.085868502102623</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-23.07841990364442</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-42.53487764883338</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-4.082025450246838</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-23.07074058276859</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-42.52591876941613</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-4.078747858871776</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-23.06419118483864</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-42.52938574026333</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-4.08001624448309</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-23.06672571741043</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-42.54848220815254</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-4.087002656012115</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-23.08068620972626</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-42.57972544309499</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-4.098432942391365</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-23.10352660847779</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-42.62792007276064</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-4.116064868791912</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-23.1387593416206</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-42.68581837922414</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-4.137246869470475</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-23.18108595757765</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-42.7405552089892</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-4.157272249072149</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-23.22110137277173</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-42.79399005288501</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-4.176821299274049</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-23.26016496986897</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-42.84285392866045</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-4.19469806826875</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-23.29588695606252</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-42.88289067866195</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-4.209345447743203</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-23.32515586296137</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-42.92435645382937</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-4.224515633736244</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-23.35546946016441</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-42.9689499749153</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-4.240830100455526</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-23.38806959920934</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-43.01531600746363</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-4.257793037592905</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-23.42196553456562</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-43.07513036199528</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-4.279676021321901</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-23.46569287941595</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-43.14950764920215</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-4.306886830140264</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-23.52006647104278</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-43.23354704317437</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-4.337632504908273</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-23.58150355566919</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-43.33048077434</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-4.373095551839016</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-23.65236705864431</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-43.43033625373264</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-4.409627515577654</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-23.72536650863898</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-43.52179508882887</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-4.443087580740183</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-23.7922275832619</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-43.60698192563856</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-4.474253045592681</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-23.85450350714426</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-43.67725370150553</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-4.499961859805341</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-23.90587576052123</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-43.72421820489245</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-4.517143746519714</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-23.94020920859409</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-43.7519054067254</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-4.527273064004719</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-23.96044996571618</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-43.75279163677772</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-4.527597289819194</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-23.96109784509929</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-43.72062698685366</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-4.515829905276664</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-23.93758384498623</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-43.66126845376178</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-4.494113683075533</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-23.89418972886408</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-43.56829480000561</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-4.46009942398502</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-23.82622124451573</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-43.43410721997977</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-4.411007117408595</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-23.72812327735776</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-43.25765235696142</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-4.346451394512863</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-23.59912576988425</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-43.02606587447598</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-4.261725858848968</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-23.42982423580254</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-42.73046054869518</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-4.153579134121845</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-23.2137216610741</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-42.37029946884186</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-4.021814792402219</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-22.95042553652797</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-41.937261132644</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-3.86338842570065</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-22.63385241944591</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-41.43194759583126</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-3.678520295120683</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-22.26444244328281</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-40.86409156768979</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-3.470771096428656</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-21.84931071508302</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-40.2388709771297</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-3.242035166443503</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-21.39224256505426</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-39.5737422792412</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-2.998698920695345</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-20.90599955248394</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-38.89386216400238</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-2.749965893047853</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-20.40897250122326</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-38.21888379789675</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-2.503026162299827</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-19.91552887866284</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-37.57066605869754</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-2.265876763116128</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-19.44164863968001</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-36.98091174900695</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-2.050116113952312</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-19.01050815043238</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-36.46347195816103</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-1.860811613176936</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-18.63223326389779</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-36.05550739006475</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-1.711558443506212</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-18.33399035054459</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-35.76792154469143</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-1.606345632563593</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-18.12375042514244</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-35.64748804274672</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-1.562285232946851</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-18.03570739078549</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-33.82506542844494</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-0.8955549016011407</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-16.7034234809685</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-32.90655458931322</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-0.5595192140975855</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-16.03194519576486</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-31.86998815023082</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-0.1802930785307655</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-15.27416224388085</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-30.82897412566678</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.2005601989067743</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-14.51312788009697</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-29.76283656225327</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.5906048819218248</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-13.73372692762827</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-28.67555857634014</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.9883837539155167</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-12.93887124774236</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-27.55920790539384</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1.3967988201559</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-12.12276195182859</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-26.41832007402019</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1.814190766387578</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-11.28871473977319</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-25.23379202758267</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>2.247548413890299</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-10.42276430401201</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-24.02866975555492</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>2.688440425126124</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-9.541758438640976</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-22.84223818748364</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>3.122494472903754</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-8.674416431449133</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-21.71590862575368</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>3.534560300008517</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-7.851012057256285</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-20.72250624807592</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>3.897994934341379</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-7.124784236460129</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-19.93823847552784</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>4.184918015602134</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-6.551444481919089</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-19.4131999495618</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>4.37700250118712</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-6.167614532329383</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-19.19917569523247</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>4.455302924417813</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-6.011151883042738</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-19.32594148204637</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>4.408925868743425</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-6.103824140707938</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-19.77803919912012</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>4.24352665873598</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-6.43433063760691</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-20.53232067621341</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>3.967574014599692</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-6.985748880290095</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-21.54855961171051</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>3.595784662956914</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-7.728671389957841</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-22.75356541943699</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>3.154935259995136</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-8.609592113982711</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-24.07586527988184</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>2.671174019778879</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-9.576260774807508</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-25.43895006010161</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>2.172491683400818</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-10.57274529280665</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-26.7514898614078</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>1.692301144849696</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-11.53227885244951</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-27.94012677169967</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>1.257440276229345</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-12.40123307731966</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-28.94617076823653</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.8893807263228211</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-13.13670256646862</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-29.71544500792772</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.6079430045232969</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-13.69908128353142</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-30.22948027885453</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.4198840417893883</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-14.07486729230885</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-30.50068120608928</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.3206656263365232</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-14.27312900660433</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-30.55398172342727</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.3011657192859993</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-14.31209440413455</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-30.44692064299227</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.3403338403751948</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-14.23382729215304</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-30.24925750079654</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.412648577504092</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-14.08932545056888</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-30.01433080204284</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.4985961258240086</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-13.91758204797952</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-29.80132063971747</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.5765255451544449</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-13.76186075168606</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-29.65275810393082</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.6308769057736949</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-13.65325395846648</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-29.57753372856615</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.6583976204084718</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-13.59826110217843</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-29.58604636727425</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.6552832854666534</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-13.60448427538309</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-29.66905639084731</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.6249142041747805</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-13.66516883772994</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-29.7894873925995</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.5808547192493801</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-13.7532100443186</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-29.92425422652972</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.5315504935798953</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-13.85173147563381</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-30.04321364141609</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.4880293863013476</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-13.93869687714419</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-30.10833048027807</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.4642064973567508</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-13.98630060856913</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-30.11437917918297</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.4619935907600995</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-13.99072251606912</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-30.06233965564319</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.4810321652929572</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-13.95267896934044</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-29.9518865439579</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.5214412554645644</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-13.87193210945585</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-29.80851506392297</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.5738934768313638</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-13.76712024283491</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-29.65109415202763</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.6314856598546937</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-13.65203752473155</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-29.48552025479898</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.6920605992211852</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-13.53099455838978</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-29.33380982928075</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.7475636101477278</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-13.42008649717321</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-29.20303474874555</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.7954074593694973</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-13.32448324124631</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-29.08351308961246</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.8391342627856873</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-13.23710681050626</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-28.97923788814379</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.8772831746136872</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-13.16087631818279</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-28.87890736497624</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.9139889323400389</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-13.08752958695226</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-28.76059166900399</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.9572745361071971</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-13.0010347768102</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-28.62120935802821</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1.008267326501328</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-12.89913919629619</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-28.44841420606843</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>1.071484150094803</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-12.77281712432245</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-28.22658593428314</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>1.15263966034176</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-12.61064934011984</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-27.9615288157401</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>1.249610373438101</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-12.41687906343095</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-27.65120615874365</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>1.363141409707969</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-12.19001736871563</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-27.29193308788833</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>1.49458087478876</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-11.92737042405264</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-26.89723040497669</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>1.638982205465585</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-11.63882262538178</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-26.46916097267015</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>1.795590706809307</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-11.32588203055439</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-26.00742485041686</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>1.964516111580016</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-10.98832936772429</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-25.5283193795434</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2.139796064121315</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-10.63807882488049</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-25.03697916544021</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2.319552077453054</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-10.27888406052749</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-24.53689314982558</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.502507727956677</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-9.913295669064778</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-24.04669936660013</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.681844321427744</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-9.554939004173519</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-23.57424556875792</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2.854690770274934</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-9.209551173679406</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-23.12666683772383</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>3.018436716634354</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-8.882348286131016</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-22.72377541305592</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>3.165833885083177</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-8.587814099452283</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-22.37167962043114</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>3.294647554667762</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-8.330414111355687</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-22.07375317258794</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>3.403643458103285</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-8.112614677977549</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-21.84448541208224</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>3.487520693125098</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-7.945008247962659</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-21.68301678742159</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>3.546593725240197</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-7.826966445316303</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-21.58399916633667</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>3.58281915988797</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-7.754579512491539</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-21.55185563642868</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>3.594578817707178</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-7.731080952187763</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-21.57651547249402</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>3.585557057034459</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-7.749108550479598</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-21.64577109853098</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>3.560219999574347</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-7.799737946487552</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-21.75887414003666</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>3.518841436914125</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-7.882422040268464</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-21.90238675924581</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>3.466337580011389</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-7.98733708682659</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-22.06208920982039</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>3.407910699795624</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-8.104087726107025</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-22.23772883671885</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>3.343653229700353</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-8.23248925438411</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-22.41983321835765</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>3.277030639661838</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-8.365616848203782</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-22.60258986901036</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>3.21016941807192</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-8.499221283950934</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-22.79918307745088</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>3.138246114456592</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-8.642940949372752</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-23.013162720461</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>3.059962012204034</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-8.799370985509015</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-23.24865344374574</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>2.97380811643237</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-8.971526718806713</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-23.52587138530556</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>2.872388386134541</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-9.174187177557785</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-23.84858406683641</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>2.754324479663008</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-9.410106612338383</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-24.21616689989263</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>2.619844901678589</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-9.678828417128635</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-24.64017518157319</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>2.46472216564597</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-9.9888001036513</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-25.11046003690864</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>2.29266922086576</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-10.332602326515</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-25.61226282038636</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2.109085493648633</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-10.69944576287396</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-26.14372748402023</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>1.914650016113195</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-11.08797354695602</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-26.68632376964735</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>1.716142052886604</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-11.48463911464293</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-27.21615341784977</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>1.522304743071327</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-11.87197161902723</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-27.73882793135106</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>1.331085127578253</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-12.25407335489489</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-28.22345682630031</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>1.153784439377006</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-12.60836180253942</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-28.67819297107093</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.9874199649140132</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-12.9407971246956</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-29.07605359779133</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.841863305662212</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-13.23165354140681</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-29.45512504006471</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.7031806387949223</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-13.50877410567584</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>